--- a/query.xlsx
+++ b/query.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fantastic Matrix, Innovative Matrix, Fantastic Phase, Wonder Phase, Dynamic Hub, Fun Matrix</t>
+          <t>Wonder Tool, Fun Solution, Awesome App, Innovative Hub, Sleek App, Sleek Tool</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Awesome Phase, Fun Hub, Smart Matrix, Power Tool, Fun Platform, Smart Platform</t>
+          <t>Fantastic App, Dynamic Phase, Power Solution, Creative Matrix, Awesome Space, Innovative App</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Creative Platform, Creative Tool, Smart Matrix, Fantastic Platform, Fun Tool, Smart App</t>
+          <t>Dynamic Hub, Wonder Phase, Cool Tool, Smart Solution, Fantastic Phase, Innovative App</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fun Hub, Wonder Phase, Fun Solution, Fantastic Platform, Sleek Hub</t>
+          <t>Sleek Phase, Fantastic Space, Awesome Phase, Power Matrix, Creative App, Innovative Phase</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Awesome Phase, Smart Hub, Fun Matrix, Fantastic Platform, Power Platform, Cool Platform</t>
+          <t>Dynamic Phase, Smart Phase, Awesome Solution, Cool App, Cool Space, Fantastic Platform</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fantastic Space, Fun Matrix, Dynamic App, Fantastic Tool, Awesome Platform</t>
+          <t>Sleek Phase, Power Platform, Fun App, Wonder App, Sleek Tool, Dynamic Tool</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Smart Hub, Creative Tool, Creative Hub, Cool Platform, Awesome App, Power Solution</t>
+          <t>Sleek Phase, Fun Tool, Power App, Fantastic Phase, Power Tool</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Creative Phase, Creative App, Creative Matrix, Power Matrix, Sleek Hub</t>
+          <t>Smart Phase, Smart Tool, Fantastic Space, Cool Solution, Fun Platform, Dynamic Platform</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Innovative Phase, Creative Matrix, Wonder Phase, Dynamic Solution, Dynamic Tool, Smart Platform</t>
+          <t>Smart Phase, Smart Matrix, Awesome App, Wonder Solution, Cool Matrix, Fun Matrix</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fun Matrix, Dynamic Solution, Power Platform, Fun Platform, Awesome Platform</t>
+          <t>Fun Tool, Power Phase, Awesome Hub, Sleek Hub, Wonder Space, Smart Space</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Creative Solution, Fun Matrix, Dynamic Tool, Smart Space, Awesome App, Smart App</t>
+          <t>Dynamic Phase, Power Solution, Fantastic Space, Sleek Hub, Awesome Phase, Fun Hub</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sleek Tool, Innovative Phase, Fantastic Space, Cool App, Dynamic App, Awesome App</t>
+          <t>Fantastic Space, Sleek Hub, Fun Hub, Cool App, Fantastic Tool, Awesome Matrix</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cool Solution, Creative Platform, Creative Tool, Power Tool, Fun Matrix, Fun Platform</t>
+          <t>Innovative Space, Wonder Tool, Wonder Hub, Dynamic Solution, Innovative Hub, Power Hub</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cool Solution, Creative Space, Cool Platform, Power Tool, Power Solution, Awesome Tool</t>
+          <t>Dynamic Space, Power App, Wonder Solution, Cool Space, Wonder App, Fantastic Platform</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cool App, Creative Hub, Fantastic Phase, Power Tool, Power Matrix, Smart Space</t>
+          <t>Fun Phase, Creative Platform, Innovative Tool, Cool App, Innovative Matrix, Fantastic Platform</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Awesome Phase, Innovative Matrix, Dynamic Space, Creative Tool, Creative Hub, Fun Platform</t>
+          <t>Innovative Tool, Smart Platform, Power App, Cool Solution, Wonder App, Awesome Space</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fantastic Matrix, Power Phase, Fantastic Phase, Wonder Phase, Awesome Platform, Cool Platform</t>
+          <t>Fun Space, Fantastic Hub, Innovative Solution, Fun App, Smart Matrix, Creative Space</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Creative Solution, Creative App, Creative Space, Dynamic Space, Fun Tool</t>
+          <t>Innovative Space, Smart Phase, Smart Tool, Wonder Hub, Innovative Phase, Sleek App</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Smart Hub, Creative Space, Wonder Phase, Fun Matrix, Awesome Platform</t>
+          <t>Creative Solution, Power Phase, Creative Platform, Wonder Space, Fantastic Tool, Smart Hub</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Smart Hub, Cool App, Wonder Phase, Fun Solution, Sleek App, Power Platform</t>
+          <t>Creative Solution, Wonder Tool, Sleek Platform, Fun Hub, Innovative App, Power Tool</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Innovative Platform, Innovative Phase, Creative Tool, Wonder Phase, Awesome Space, Smart Platform</t>
+          <t>Awesome Hub, Power Space, Cool Space, Cool Tool, Innovative Phase, Fantastic Platform</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fantastic Phase, Power Tool, Creative Space, Smart Tool</t>
+          <t>Creative Hub, Cool Platform, Wonder Solution, Awesome Space, Innovative App, Sleek Tool</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Awesome Phase, Fun Hub, Fantastic Space, Dynamic Hub, Fantastic Platform, Smart Platform</t>
+          <t>Wonder Platform, Power Phase, Awesome Hub, Wonder App, Power Hub, Power Tool</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fantastic Matrix, Smart Hub, Creative Platform, Fantastic Space, Fantastic Phase, Smart App</t>
+          <t>Fantastic App, Awesome Hub, Fantastic Space, Creative Space, Fun Platform, Fantastic Solution</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wonder Phase, Dynamic Hub, Fantastic Platform, Fun Tool, Cool Platform</t>
+          <t>Fantastic Hub, Dynamic Phase, Power Platform, Awesome App, Fantastic Tool, Smart Hub</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Creative Solution, Creative Matrix, Smart Matrix, Dynamic App, Awesome Space, Awesome App</t>
+          <t>Dynamic Phase, Fantastic App, Fantastic Space, Creative Space, Creative Matrix, Smart Space</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Creative Solution, Power Matrix, Fun Platform, Dynamic Tool, Smart Space, Sleek Hub</t>
+          <t>Smart Tool, Creative Platform, Cool Platform, Cool Phase, Innovative Phase, Fantastic Solution</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fantastic Matrix, Innovative Phase, Fantastic Phase, Awesome Tool, Sleek Hub</t>
+          <t>Awesome Solution, Dynamic App, Dynamic Solution, Innovative Hub, Innovative App, Dynamic Tool</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Creative Space, Dynamic Space, Creative Matrix, Sleek App, Fun Platform, Sleek Hub</t>
+          <t>Fun Space, Smart Phase, Dynamic Matrix, Awesome App, Fun Hub, Power Space</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Creative Solution, Smart Hub, Innovative Phase, Wonder Phase, Power Platform</t>
+          <t>Wonder Tool, Sleek Phase, Fantastic Space, Power Space, Smart Solution, Innovative Phase</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Creative Phase, Cool Solution, Sleek App, Smart Space, Smart Platform, Sleek Hub</t>
+          <t>Power Phase, Fantastic Space, Smart Platform, Dynamic App, Creative App, Fantastic Platform</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Creative Solution, Creative Matrix, Cool App, Wonder Phase, Power Matrix, Dynamic Tool</t>
+          <t>Creative Phase, Smart Tool, Smart Phase, Awesome Phase, Fantastic Platform</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cool Solution, Innovative Matrix, Fun Solution, Power Matrix, Dynamic App, Smart App</t>
+          <t>Fun Solution, Cool Platform, Dynamic App, Wonder Phase, Creative Space, Power Tool</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Smart Hub, Creative Tool, Dynamic App, Awesome Space, Awesome Platform, Sleek Hub</t>
+          <t>Innovative Solution, Fantastic Space, Wonder Solution, Cool Space, Fun Platform, Awesome Matrix</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Awesome Phase, Fantastic Space, Sleek App, Power Space, Awesome Platform, Smart App</t>
+          <t>Fantastic Hub, Fun Phase, Dynamic Phase, Wonder App, Fantastic Tool, Fun Matrix</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Innovative Phase, Sleek App, Fantastic Platform, Smart Tool, Fantastic Tool</t>
+          <t>Fantastic Tool, Sleek App, Power Matrix, Wonder Space, Innovative Phase, Fun Matrix</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Creative Platform, Fun Hub, Power Matrix, Smart Space, Power Solution, Sleek Hub</t>
+          <t>Dynamic Phase, Power Tool, Awesome Matrix, Smart Hub, Fantastic Solution</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Creative Matrix, Creative Tool, Power Matrix, Smart Space, Fun Tool</t>
+          <t>Innovative Tool, Smart Platform, Power App, Cool Hub, Awesome Platform</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Smart Hub, Innovative Matrix, Creative Platform, Creative Hub, Dynamic App, Power Space</t>
+          <t>Cool Space, Cool Tool, Fantastic Phase, Dynamic Tool, Smart Space</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Awesome Platform, Power Phase, Fun Platform, Creative Hub</t>
+          <t>Fun Space, Creative Solution, Wonder Tool, Dynamic Matrix, Creative Space, Smart Solution</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Creative Platform, Dynamic Space, Creative Tool, Sleek App, Smart Space, Fantastic Tool</t>
+          <t>Dynamic Space, Creative Hub, Fantastic Space, Awesome App, Fun Hub, Innovative App</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Innovative Phase, Sleek Tool, Dynamic Hub, Awesome Space, Smart Space, Smart App</t>
+          <t>Dynamic Hub, Fun Solution, Innovative Tool, Power App, Cool App, Fantastic Tool</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Awesome Phase, Creative Platform, Cool App, Fun Matrix, Smart Platform, Power Solution</t>
+          <t>Fantastic Space, Power App, Dynamic Solution, Sleek Tool, Innovative Phase, Innovative App</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Awesome Phase, Sleek Tool, Power Matrix, Awesome Space, Smart App, Sleek Hub</t>
+          <t>Fun Phase, Smart Tool, Creative Platform, Sleek Hub, Power App, Power Tool</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Dynamic Solution, Dynamic App, Power Space, Smart Platform, Awesome Platform, Cool Platform</t>
+          <t>Smart Phase, Power Phase, Cool Hub, Wonder Space, Smart Space, Sleek App</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Creative Solution, Innovative Platform, Creative Tool, Fun Solution, Smart Platform, Fun Tool</t>
+          <t>Fantastic Hub, Power Matrix, Power Space, Creative App, Smart Solution, Smart Space</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Cool Solution, Creative Platform, Cool App, Awesome Space, Awesome Platform</t>
+          <t>Fun Phase, Smart Phase, Dynamic Matrix, Cool Platform, Awesome Space, Dynamic Tool</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Creative Solution, Creative Space, Creative Platform, Power Phase, Dynamic Tool, Smart App</t>
+          <t>Fun Space, Dynamic Phase, Smart Tool, Fun Solution, Cool App, Power Hub</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Smart Hub, Creative Space, Fantastic Phase, Dynamic App, Awesome Platform, Cool Platform</t>
+          <t>Fantastic Hub, Innovative Matrix, Dynamic Solution, Sleek Tool, Awesome Platform</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fantastic Matrix, Smart Hub, Power Phase, Smart Platform, Awesome App, Awesome Tool</t>
+          <t>Fun Space, Dynamic Phase, Innovative Solution, Smart App, Sleek Tool, Awesome Matrix</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Creative Phase, Smart Hub, Power Phase, Creative Matrix, Fun Matrix, Smart Space</t>
+          <t>Wonder Matrix, Awesome Phase, Smart Space, Awesome Matrix, Smart Hub, Fantastic Solution</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Power Tool, Awesome Space, Awesome App, Fun Tool, Cool Platform, Fantastic Tool</t>
+          <t>Fantastic Hub, Innovative Solution, Fun Hub, Sleek Solution, Wonder Solution, Creative Matrix</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Innovative Phase, Innovative Matrix, Dynamic Space, Dynamic Hub, Fantastic Platform</t>
+          <t>Fun Space, Creative Hub, Fantastic Space, Fantastic Phase, Fantastic Platform</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Innovative Platform, Creative Hub, Dynamic Hub, Fantastic Platform, Sleek App, Power Space</t>
+          <t>Fun Space, Fun Phase, Smart Tool, Cool Matrix, Creative Space, Cool Phase</t>
         </is>
       </c>
     </row>
